--- a/formats/excel/Formats RSA ANO 15.xlsx
+++ b/formats/excel/Formats RSA ANO 15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
   <si>
     <t>position</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>NOSEJ</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
   <si>
     <t>N° Séjour</t>
@@ -534,8 +537,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -581,6 +584,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -589,23 +630,68 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,94 +705,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -725,19 +728,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,25 +764,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,19 +788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,19 +806,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,31 +848,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,37 +896,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,11 +955,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,189 +1022,148 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1504,11 +1507,11 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21:F51"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1869,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1880,7 +1883,7 @@
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -1893,7 +1896,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1901,7 +1904,7 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -1914,7 +1917,7 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1922,7 +1925,7 @@
         <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -1935,7 +1938,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1943,7 +1946,7 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1956,7 +1959,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1964,7 +1967,7 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1977,15 +1980,15 @@
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" ht="21" spans="1:6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1998,15 +2001,15 @@
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" ht="21" spans="1:6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2019,7 +2022,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2027,7 +2030,7 @@
         <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2040,15 +2043,15 @@
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" ht="21" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2061,7 +2064,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2069,7 +2072,7 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2082,15 +2085,15 @@
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" ht="21" spans="1:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2103,7 +2106,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2111,7 +2114,7 @@
         <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2124,7 +2127,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2132,7 +2135,7 @@
         <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2145,15 +2148,15 @@
         <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" ht="21" spans="1:6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2166,15 +2169,15 @@
         <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" ht="21" spans="1:6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2187,7 +2190,7 @@
         <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" ht="21" spans="1:6">
@@ -2195,7 +2198,7 @@
         <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2208,15 +2211,15 @@
         <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" ht="21" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2229,7 +2232,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2237,7 +2240,7 @@
         <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2250,7 +2253,7 @@
         <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2258,7 +2261,7 @@
         <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2271,7 +2274,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2279,7 +2282,7 @@
         <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2292,7 +2295,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2300,7 +2303,7 @@
         <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2313,7 +2316,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2321,7 +2324,7 @@
         <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2334,7 +2337,7 @@
         <v>7</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2342,7 +2345,7 @@
         <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2355,7 +2358,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2363,7 +2366,7 @@
         <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2376,7 +2379,7 @@
         <v>7</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2384,7 +2387,7 @@
         <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2397,7 +2400,7 @@
         <v>7</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2405,7 +2408,7 @@
         <v>101</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2418,7 +2421,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2426,7 +2429,7 @@
         <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2439,7 +2442,7 @@
         <v>7</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2447,7 +2450,7 @@
         <v>103</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2460,7 +2463,7 @@
         <v>7</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2468,7 +2471,7 @@
         <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2481,7 +2484,7 @@
         <v>7</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2489,7 +2492,7 @@
         <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2502,7 +2505,7 @@
         <v>7</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2510,7 +2513,7 @@
         <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2523,7 +2526,7 @@
         <v>7</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2531,7 +2534,7 @@
         <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2544,15 +2547,15 @@
         <v>7</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" ht="21" spans="1:6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>108</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2565,7 +2568,7 @@
         <v>7</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2573,7 +2576,7 @@
         <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2586,7 +2589,7 @@
         <v>7</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2594,7 +2597,7 @@
         <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -2607,7 +2610,7 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2615,7 +2618,7 @@
         <v>112</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -2628,7 +2631,7 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2636,7 +2639,7 @@
         <v>114</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2649,7 +2652,7 @@
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2657,7 +2660,7 @@
         <v>115</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2670,7 +2673,7 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2678,7 +2681,7 @@
         <v>116</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -2691,7 +2694,7 @@
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2699,7 +2702,7 @@
         <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -2712,7 +2715,7 @@
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2720,7 +2723,7 @@
         <v>120</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2733,7 +2736,7 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2741,7 +2744,7 @@
         <v>121</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2754,7 +2757,7 @@
         <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2762,7 +2765,7 @@
         <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2775,7 +2778,7 @@
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2783,7 +2786,7 @@
         <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -2796,7 +2799,7 @@
         <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2804,7 +2807,7 @@
         <v>127</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C62">
         <v>10</v>
@@ -2814,10 +2817,10 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2825,7 +2828,7 @@
         <v>137</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C63">
         <v>10</v>
@@ -2835,10 +2838,10 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2846,7 +2849,7 @@
         <v>147</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C64">
         <v>10</v>
@@ -2856,10 +2859,10 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F64" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2867,7 +2870,7 @@
         <v>157</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -2877,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2888,7 +2891,7 @@
         <v>161</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C66">
         <v>10</v>
@@ -2898,10 +2901,10 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2909,7 +2912,7 @@
         <v>171</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -2919,10 +2922,10 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2930,7 +2933,7 @@
         <v>176</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2943,7 +2946,7 @@
         <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2951,7 +2954,7 @@
         <v>177</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C69">
         <v>32</v>
@@ -2964,7 +2967,7 @@
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2972,7 +2975,7 @@
         <v>209</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2985,7 +2988,7 @@
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2993,7 +2996,7 @@
         <v>210</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3006,7 +3009,7 @@
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3014,7 +3017,7 @@
         <v>211</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C72">
         <v>8</v>
@@ -3027,7 +3030,7 @@
         <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3035,7 +3038,7 @@
         <v>219</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C73">
         <v>10</v>
@@ -3045,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F73" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3056,7 +3059,7 @@
         <v>229</v>
       </c>
       <c r="B74" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3069,7 +3072,7 @@
         <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3077,7 +3080,7 @@
         <v>230</v>
       </c>
       <c r="B75" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -3090,7 +3093,7 @@
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3098,7 +3101,7 @@
         <v>236</v>
       </c>
       <c r="B76" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -3116,7 +3119,7 @@
         <v>239</v>
       </c>
       <c r="B77" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3129,7 +3132,7 @@
         <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3137,7 +3140,7 @@
         <v>240</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -3150,7 +3153,7 @@
         <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3158,7 +3161,7 @@
         <v>243</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -3171,7 +3174,7 @@
         <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3179,7 +3182,7 @@
         <v>246</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -3192,7 +3195,7 @@
         <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3200,7 +3203,7 @@
         <v>250</v>
       </c>
       <c r="B81" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3213,7 +3216,7 @@
         <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3221,7 +3224,7 @@
         <v>251</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C82">
         <v>9</v>
@@ -3234,7 +3237,7 @@
         <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3242,7 +3245,7 @@
         <v>260</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C83">
         <v>10</v>
@@ -3255,7 +3258,7 @@
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/formats/excel/Formats RSA ANO 15.xlsx
+++ b/formats/excel/Formats RSA ANO 15.xlsx
@@ -538,8 +538,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -584,8 +584,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,17 +623,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -622,14 +646,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -638,15 +654,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,7 +686,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,45 +710,6 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -728,25 +728,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,19 +758,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,13 +770,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,7 +800,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,61 +848,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,13 +884,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,9 +948,38 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,26 +1014,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1019,151 +1028,142 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1507,11 +1507,11 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="F61" t="s">
         <v>127</v>
